--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H2">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I2">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J2">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N2">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O2">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P2">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q2">
-        <v>32.87367610566999</v>
+        <v>67.153389611572</v>
       </c>
       <c r="R2">
-        <v>131.49470442268</v>
+        <v>268.613558446288</v>
       </c>
       <c r="S2">
-        <v>0.01889679351765828</v>
+        <v>0.02905364686108233</v>
       </c>
       <c r="T2">
-        <v>0.01098274366559606</v>
+        <v>0.01747829844802246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H3">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I3">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J3">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>386.726074</v>
       </c>
       <c r="O3">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P3">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q3">
-        <v>48.83415726607834</v>
+        <v>171.0556457821493</v>
       </c>
       <c r="R3">
-        <v>293.00494359647</v>
+        <v>1026.333874692896</v>
       </c>
       <c r="S3">
-        <v>0.02807136577910036</v>
+        <v>0.07400654464197816</v>
       </c>
       <c r="T3">
-        <v>0.02447245463154505</v>
+        <v>0.06678207113951297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H4">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I4">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J4">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N4">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O4">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P4">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q4">
-        <v>4.746552624345834</v>
+        <v>22.243498660152</v>
       </c>
       <c r="R4">
-        <v>28.479315746075</v>
+        <v>133.460991960912</v>
       </c>
       <c r="S4">
-        <v>0.002728463484723933</v>
+        <v>0.009623561204655118</v>
       </c>
       <c r="T4">
-        <v>0.002378658714690927</v>
+        <v>0.008684115061631888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H5">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I5">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J5">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N5">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O5">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P5">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q5">
-        <v>13.65924925197875</v>
+        <v>47.02387145213999</v>
       </c>
       <c r="R5">
-        <v>54.636997007915</v>
+        <v>188.09548580856</v>
       </c>
       <c r="S5">
-        <v>0.007851753843749507</v>
+        <v>0.02034469091007697</v>
       </c>
       <c r="T5">
-        <v>0.004563409115450061</v>
+        <v>0.01223910310672264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H6">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I6">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J6">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N6">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O6">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P6">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q6">
-        <v>16.18251663036417</v>
+        <v>4.515633579424001</v>
       </c>
       <c r="R6">
-        <v>97.095099782185</v>
+        <v>27.093801476544</v>
       </c>
       <c r="S6">
-        <v>0.009302205034116016</v>
+        <v>0.001953670903724899</v>
       </c>
       <c r="T6">
-        <v>0.008109608647550098</v>
+        <v>0.001762954748217595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H7">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I7">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J7">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N7">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O7">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P7">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q7">
-        <v>6.546011156305</v>
+        <v>17.688981406272</v>
       </c>
       <c r="R7">
-        <v>39.27606693783</v>
+        <v>106.133888437632</v>
       </c>
       <c r="S7">
-        <v>0.003762847233371865</v>
+        <v>0.007653067433866615</v>
       </c>
       <c r="T7">
-        <v>0.003280428495313453</v>
+        <v>0.006905979684316593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H8">
         <v>1.915376</v>
       </c>
       <c r="I8">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J8">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N8">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O8">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P8">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q8">
-        <v>55.40380097764265</v>
+        <v>32.31063640097867</v>
       </c>
       <c r="R8">
-        <v>332.4228058658559</v>
+        <v>193.863818405872</v>
       </c>
       <c r="S8">
-        <v>0.03184779772735457</v>
+        <v>0.01397906829842437</v>
       </c>
       <c r="T8">
-        <v>0.02776472620286901</v>
+        <v>0.01261444022397927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H9">
         <v>1.915376</v>
       </c>
       <c r="I9">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J9">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>386.726074</v>
       </c>
       <c r="O9">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P9">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q9">
-        <v>82.30287119042488</v>
+        <v>82.3028711904249</v>
       </c>
       <c r="R9">
-        <v>740.725840713824</v>
+        <v>740.7258407138241</v>
       </c>
       <c r="S9">
-        <v>0.04731020521698322</v>
+        <v>0.03560800979743391</v>
       </c>
       <c r="T9">
-        <v>0.06186714568286387</v>
+        <v>0.04819796657713159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H10">
         <v>1.915376</v>
       </c>
       <c r="I10">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J10">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N10">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O10">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P10">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q10">
-        <v>7.999624261182222</v>
+        <v>10.702387498992</v>
       </c>
       <c r="R10">
-        <v>71.99661835064001</v>
+        <v>96.32148749092801</v>
       </c>
       <c r="S10">
-        <v>0.004598428462837385</v>
+        <v>0.004630345374443966</v>
       </c>
       <c r="T10">
-        <v>0.006013325081085519</v>
+        <v>0.006267500847916218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H11">
         <v>1.915376</v>
       </c>
       <c r="I11">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J11">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N11">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O11">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P11">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q11">
-        <v>23.02067844886133</v>
+        <v>22.62538378844</v>
       </c>
       <c r="R11">
-        <v>138.124070693168</v>
+        <v>135.75230273064</v>
       </c>
       <c r="S11">
-        <v>0.01323298939510776</v>
+        <v>0.009788782286166494</v>
       </c>
       <c r="T11">
-        <v>0.01153644376122942</v>
+        <v>0.00883320736249012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H12">
         <v>1.915376</v>
       </c>
       <c r="I12">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J12">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N12">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O12">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P12">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q12">
-        <v>27.27327871163911</v>
+        <v>2.172682504170667</v>
       </c>
       <c r="R12">
-        <v>245.459508404752</v>
+        <v>19.55414253753601</v>
       </c>
       <c r="S12">
-        <v>0.01567751396913283</v>
+        <v>0.000940002441910228</v>
       </c>
       <c r="T12">
-        <v>0.02050134925910858</v>
+        <v>0.001272359969999678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H13">
         <v>1.915376</v>
       </c>
       <c r="I13">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J13">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N13">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O13">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P13">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q13">
-        <v>11.03234996097067</v>
+        <v>8.510996240512002</v>
       </c>
       <c r="R13">
-        <v>99.29114964873601</v>
+        <v>76.598966164608</v>
       </c>
       <c r="S13">
-        <v>0.006341731863417931</v>
+        <v>0.003682248664410294</v>
       </c>
       <c r="T13">
-        <v>0.008293027842011864</v>
+        <v>0.004984184711966817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H14">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I14">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J14">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N14">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O14">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P14">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q14">
-        <v>120.6711004572866</v>
+        <v>118.95132545428</v>
       </c>
       <c r="R14">
-        <v>724.0266027437198</v>
+        <v>713.7079527256799</v>
       </c>
       <c r="S14">
-        <v>0.06936543578394154</v>
+        <v>0.05146381773721792</v>
       </c>
       <c r="T14">
-        <v>0.0604723864730412</v>
+        <v>0.04643995141057232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H15">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I15">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J15">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>386.726074</v>
       </c>
       <c r="O15">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P15">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q15">
-        <v>179.2580628421256</v>
+        <v>302.9973008051733</v>
       </c>
       <c r="R15">
-        <v>1613.32256557913</v>
+        <v>2726.97570724656</v>
       </c>
       <c r="S15">
-        <v>0.1030430119532268</v>
+        <v>0.1310905767880653</v>
       </c>
       <c r="T15">
-        <v>0.1347484544375407</v>
+        <v>0.1774403926125464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H16">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I16">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J16">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N16">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O16">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P16">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q16">
-        <v>17.42341582721389</v>
+        <v>39.40074601848</v>
       </c>
       <c r="R16">
-        <v>156.810742444925</v>
+        <v>354.60671416632</v>
       </c>
       <c r="S16">
-        <v>0.01001551180953481</v>
+        <v>0.01704657601806076</v>
       </c>
       <c r="T16">
-        <v>0.01309719806471059</v>
+        <v>0.02307374958182118</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H17">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I17">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J17">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N17">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O17">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P17">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q17">
-        <v>50.13971158438083</v>
+        <v>83.29515262859998</v>
       </c>
       <c r="R17">
-        <v>300.838269506285</v>
+        <v>499.7709157715999</v>
       </c>
       <c r="S17">
-        <v>0.02882183829394011</v>
+        <v>0.03603731641409616</v>
       </c>
       <c r="T17">
-        <v>0.0251267122375398</v>
+        <v>0.03251937568610931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H18">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I18">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J18">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N18">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O18">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P18">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q18">
-        <v>59.40199945017945</v>
+        <v>7.998711645759999</v>
       </c>
       <c r="R18">
-        <v>534.617995051615</v>
+        <v>71.98840481184</v>
       </c>
       <c r="S18">
-        <v>0.03414608437881651</v>
+        <v>0.003460610772497649</v>
       </c>
       <c r="T18">
-        <v>0.04465253885656913</v>
+        <v>0.0046841821067271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H19">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I19">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J19">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N19">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O19">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P19">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q19">
-        <v>24.02878118339667</v>
+        <v>31.33315825728</v>
       </c>
       <c r="R19">
-        <v>216.25903065057</v>
+        <v>281.99842431552</v>
       </c>
       <c r="S19">
-        <v>0.01381247765063071</v>
+        <v>0.01355616626822583</v>
       </c>
       <c r="T19">
-        <v>0.01806245741555381</v>
+        <v>0.01834923244592774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H20">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I20">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J20">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N20">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O20">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P20">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q20">
-        <v>141.400868493448</v>
+        <v>165.6065780080422</v>
       </c>
       <c r="R20">
-        <v>565.6034739737919</v>
+        <v>662.426312032169</v>
       </c>
       <c r="S20">
-        <v>0.08128153987248699</v>
+        <v>0.07164902714737756</v>
       </c>
       <c r="T20">
-        <v>0.04724051815088437</v>
+        <v>0.04310312870463782</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H21">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I21">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J21">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>386.726074</v>
       </c>
       <c r="O21">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P21">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q21">
-        <v>210.0523296321614</v>
+        <v>421.8393190692497</v>
       </c>
       <c r="R21">
-        <v>1260.313977792968</v>
+        <v>2531.035914415498</v>
       </c>
       <c r="S21">
-        <v>0.1207444974575699</v>
+        <v>0.1825071032042953</v>
       </c>
       <c r="T21">
-        <v>0.1052643558312034</v>
+        <v>0.1646908717143681</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H22">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I22">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J22">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N22">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O22">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P22">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q22">
-        <v>20.41653818316334</v>
+        <v>54.85456083961351</v>
       </c>
       <c r="R22">
-        <v>122.49922909898</v>
+        <v>329.127365037681</v>
       </c>
       <c r="S22">
-        <v>0.01173604999795202</v>
+        <v>0.02373260752096501</v>
       </c>
       <c r="T22">
-        <v>0.01023142063654979</v>
+        <v>0.02141584492910142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H23">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I23">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J23">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N23">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O23">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P23">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q23">
-        <v>58.753079545769</v>
+        <v>115.9652920116637</v>
       </c>
       <c r="R23">
-        <v>235.012318183076</v>
+        <v>463.8611680466549</v>
       </c>
       <c r="S23">
-        <v>0.0337730653892844</v>
+        <v>0.05017192224751946</v>
       </c>
       <c r="T23">
-        <v>0.01962877562403983</v>
+        <v>0.03018277997753756</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H24">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I24">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J24">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N24">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O24">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P24">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q24">
-        <v>69.60651125806068</v>
+        <v>11.135977334162</v>
       </c>
       <c r="R24">
-        <v>417.639067548364</v>
+        <v>66.815864004972</v>
       </c>
       <c r="S24">
-        <v>0.04001194957631347</v>
+        <v>0.004817936291692516</v>
       </c>
       <c r="T24">
-        <v>0.03488218665352665</v>
+        <v>0.004347612305560151</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H25">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I25">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J25">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N25">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O25">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P25">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q25">
-        <v>28.15662172049201</v>
+        <v>43.622692705236</v>
       </c>
       <c r="R25">
-        <v>168.939730322952</v>
+        <v>261.736156231416</v>
       </c>
       <c r="S25">
-        <v>0.01618528652215987</v>
+        <v>0.01887318445603882</v>
       </c>
       <c r="T25">
-        <v>0.01411023935312096</v>
+        <v>0.01703079576366836</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H26">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I26">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J26">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N26">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O26">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P26">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q26">
-        <v>31.93446953952133</v>
+        <v>50.35370618501499</v>
       </c>
       <c r="R26">
-        <v>191.606817237128</v>
+        <v>302.1222371100899</v>
       </c>
       <c r="S26">
-        <v>0.01835690888492385</v>
+        <v>0.02178533066027129</v>
       </c>
       <c r="T26">
-        <v>0.01600344719230481</v>
+        <v>0.01965866004135553</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H27">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I27">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J27">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>386.726074</v>
       </c>
       <c r="O27">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P27">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q27">
-        <v>47.43895701499578</v>
+        <v>128.2628587897533</v>
       </c>
       <c r="R27">
-        <v>426.950613134962</v>
+        <v>1154.36572910778</v>
       </c>
       <c r="S27">
-        <v>0.02726936204286641</v>
+        <v>0.05549241559100997</v>
       </c>
       <c r="T27">
-        <v>0.03565990860633922</v>
+        <v>0.07511292001870151</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H28">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I28">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J28">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N28">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O28">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P28">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q28">
-        <v>4.610942801549445</v>
+        <v>16.67886911649</v>
       </c>
       <c r="R28">
-        <v>41.498485213945</v>
+        <v>150.10982204841</v>
       </c>
       <c r="S28">
-        <v>0.002650510814870025</v>
+        <v>0.00721604637019259</v>
       </c>
       <c r="T28">
-        <v>0.003466050040694082</v>
+        <v>0.009767430523304286</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H29">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I29">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J29">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N29">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O29">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P29">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q29">
-        <v>13.26900215746817</v>
+        <v>35.25996558742499</v>
       </c>
       <c r="R29">
-        <v>79.61401294480899</v>
+        <v>211.5597935245499</v>
       </c>
       <c r="S29">
-        <v>0.007627427889386264</v>
+        <v>0.0152550838377104</v>
       </c>
       <c r="T29">
-        <v>0.006649547601184402</v>
+        <v>0.01376589190885347</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H30">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I30">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J30">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N30">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O30">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P30">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q30">
-        <v>15.72017935396122</v>
+        <v>3.38596290988</v>
       </c>
       <c r="R30">
-        <v>141.481614185651</v>
+        <v>30.47366618892</v>
       </c>
       <c r="S30">
-        <v>0.009036439440404517</v>
+        <v>0.001464923382682446</v>
       </c>
       <c r="T30">
-        <v>0.01181687360580703</v>
+        <v>0.001982877690672712</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H31">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I31">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J31">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N31">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O31">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P31">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q31">
-        <v>6.358990494535334</v>
+        <v>13.26375001464</v>
       </c>
       <c r="R31">
-        <v>57.230914450818</v>
+        <v>119.37375013176</v>
       </c>
       <c r="S31">
-        <v>0.003655342042360153</v>
+        <v>0.005738508677045548</v>
       </c>
       <c r="T31">
-        <v>0.004780059135617782</v>
+        <v>0.007767478468812174</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H32">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I32">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J32">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>86.77742799999999</v>
+        <v>50.6072485</v>
       </c>
       <c r="N32">
-        <v>173.554856</v>
+        <v>101.214497</v>
       </c>
       <c r="O32">
-        <v>0.2676090626666408</v>
+        <v>0.2036920096625967</v>
       </c>
       <c r="P32">
-        <v>0.2041884050300022</v>
+        <v>0.1535170070198019</v>
       </c>
       <c r="Q32">
-        <v>83.26033884315999</v>
+        <v>36.42959409455933</v>
       </c>
       <c r="R32">
-        <v>499.56203305896</v>
+        <v>218.577564567356</v>
       </c>
       <c r="S32">
-        <v>0.04786058688027556</v>
+        <v>0.01576111895822321</v>
       </c>
       <c r="T32">
-        <v>0.04172458334530671</v>
+        <v>0.01422252819123451</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H33">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I33">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J33">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>386.726074</v>
       </c>
       <c r="O33">
-        <v>0.3975357976419474</v>
+        <v>0.5188519664463093</v>
       </c>
       <c r="P33">
-        <v>0.4549857149118006</v>
+        <v>0.5865664620849566</v>
       </c>
       <c r="Q33">
-        <v>123.6840220735933</v>
+        <v>92.79483551717244</v>
       </c>
       <c r="R33">
-        <v>1113.15619866234</v>
+        <v>835.153519654552</v>
       </c>
       <c r="S33">
-        <v>0.07109735519220074</v>
+        <v>0.04014731642352666</v>
       </c>
       <c r="T33">
-        <v>0.09297339572230842</v>
+        <v>0.05434224002269599</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H34">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I34">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J34">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.52958833333333</v>
+        <v>16.762851</v>
       </c>
       <c r="N34">
-        <v>37.588765</v>
+        <v>50.288553</v>
       </c>
       <c r="O34">
-        <v>0.03863944192356349</v>
+        <v>0.06746975797083039</v>
       </c>
       <c r="P34">
-        <v>0.04422342393230168</v>
+        <v>0.07627512236628199</v>
       </c>
       <c r="Q34">
-        <v>12.02176411818333</v>
+        <v>12.066727117116</v>
       </c>
       <c r="R34">
-        <v>108.19587706365</v>
+        <v>108.600544054044</v>
       </c>
       <c r="S34">
-        <v>0.00691047735364532</v>
+        <v>0.005220621482512945</v>
       </c>
       <c r="T34">
-        <v>0.009036771394570764</v>
+        <v>0.007066481422507002</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H35">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I35">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J35">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>36.0566465</v>
+        <v>35.4375075</v>
       </c>
       <c r="N35">
-        <v>72.113293</v>
+        <v>70.87501499999999</v>
       </c>
       <c r="O35">
-        <v>0.111193493459698</v>
+        <v>0.1426344512705199</v>
       </c>
       <c r="P35">
-        <v>0.08484175331361067</v>
+        <v>0.1074996220678108</v>
       </c>
       <c r="Q35">
-        <v>34.595270617355</v>
+        <v>25.50966614887</v>
       </c>
       <c r="R35">
-        <v>207.57162370413</v>
+        <v>153.05799689322</v>
       </c>
       <c r="S35">
-        <v>0.01988641864822998</v>
+        <v>0.01103665557495044</v>
       </c>
       <c r="T35">
-        <v>0.01733686497416715</v>
+        <v>0.009959264026097649</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H36">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I36">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J36">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.71737566666667</v>
+        <v>3.403012</v>
       </c>
       <c r="N36">
-        <v>128.152127</v>
+        <v>10.209036</v>
       </c>
       <c r="O36">
-        <v>0.1317342208129911</v>
+        <v>0.01369697768069593</v>
       </c>
       <c r="P36">
-        <v>0.1507718021634167</v>
+        <v>0.01548454715214769</v>
       </c>
       <c r="Q36">
-        <v>40.98604043089667</v>
+        <v>2.449655919525334</v>
       </c>
       <c r="R36">
-        <v>368.87436387807</v>
+        <v>22.046903275728</v>
       </c>
       <c r="S36">
-        <v>0.02356002841420778</v>
+        <v>0.001059833888188193</v>
       </c>
       <c r="T36">
-        <v>0.03080924514085524</v>
+        <v>0.001434560330970454</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H37">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I37">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J37">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.279662</v>
+        <v>13.330536</v>
       </c>
       <c r="N37">
-        <v>51.83898600000001</v>
+        <v>39.991608</v>
       </c>
       <c r="O37">
-        <v>0.05328798349515928</v>
+        <v>0.05365483696904789</v>
       </c>
       <c r="P37">
-        <v>0.06098890064886813</v>
+        <v>0.06065723930900103</v>
       </c>
       <c r="Q37">
-        <v>16.57931729914</v>
+        <v>9.595977452576001</v>
       </c>
       <c r="R37">
-        <v>149.21385569226</v>
+        <v>86.363797073184</v>
       </c>
       <c r="S37">
-        <v>0.009530298183218756</v>
+        <v>0.004151661469460785</v>
       </c>
       <c r="T37">
-        <v>0.01246268840725026</v>
+        <v>0.005619568234309355</v>
       </c>
     </row>
   </sheetData>
